--- a/Program Manager Capstone/Resource Breakdown Structure Solution.xlsx
+++ b/Program Manager Capstone/Resource Breakdown Structure Solution.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedea\AppData\Local\Box\Box Edit\Documents\w5PhPFk1SUef4nJBvJypCQ==\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dennis\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EF3692-49C5-4CF0-A875-2B5C5785FBD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30210" yWindow="-1575" windowWidth="25575" windowHeight="16665" xr2:uid="{C53FC4BA-6B7E-4ABE-BEBB-6D7C6D0DBF42}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8712"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Template!$A$1:$H$32</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -421,11 +423,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,6 +463,13 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -679,7 +688,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -688,13 +697,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -722,15 +728,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -742,6 +739,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1081,52 +1090,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC32E738-6653-47BA-B772-3C57CFBAC3D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:E32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H32" sqref="A1:H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.69921875" customWidth="1"/>
+    <col min="2" max="2" width="30.69921875" customWidth="1"/>
+    <col min="3" max="3" width="18.69921875" customWidth="1"/>
+    <col min="4" max="4" width="17.8984375" customWidth="1"/>
+    <col min="5" max="6" width="15.69921875" customWidth="1"/>
+    <col min="7" max="7" width="20.69921875" customWidth="1"/>
+    <col min="8" max="8" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" ht="46.5" customHeight="1">
+      <c r="A1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-    </row>
-    <row r="2" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+    </row>
+    <row r="2" spans="1:8" ht="70.5" customHeight="1">
+      <c r="A2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
-    </row>
-    <row r="3" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="1:8" ht="30">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1152,8 +1161,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:8" ht="30">
+      <c r="A4" s="18" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1178,8 +1187,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
+    <row r="5" spans="1:8" ht="30">
+      <c r="A5" s="19"/>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1202,8 +1211,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+    <row r="6" spans="1:8" ht="15">
+      <c r="A6" s="19"/>
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1226,8 +1235,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+    <row r="7" spans="1:8" ht="30">
+      <c r="A7" s="19"/>
       <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
@@ -1250,8 +1259,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:8" ht="30" customHeight="1">
+      <c r="A8" s="18" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1276,8 +1285,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+    <row r="9" spans="1:8" ht="30">
+      <c r="A9" s="19"/>
       <c r="B9" s="4" t="s">
         <v>30</v>
       </c>
@@ -1300,8 +1309,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+    <row r="10" spans="1:8" ht="15">
+      <c r="A10" s="19"/>
       <c r="B10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1324,8 +1333,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
+    <row r="11" spans="1:8" ht="15">
+      <c r="A11" s="20"/>
       <c r="B11" s="4" t="s">
         <v>32</v>
       </c>
@@ -1348,8 +1357,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:8" ht="30">
+      <c r="A12" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1374,8 +1383,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+    <row r="13" spans="1:8" ht="30">
+      <c r="A13" s="19"/>
       <c r="B13" s="4" t="s">
         <v>48</v>
       </c>
@@ -1398,8 +1407,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
+    <row r="14" spans="1:8" ht="15">
+      <c r="A14" s="19"/>
       <c r="B14" s="4" t="s">
         <v>49</v>
       </c>
@@ -1422,8 +1431,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
+    <row r="15" spans="1:8" ht="30">
+      <c r="A15" s="20"/>
       <c r="B15" s="4" t="s">
         <v>50</v>
       </c>
@@ -1446,8 +1455,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+    <row r="16" spans="1:8" ht="30" customHeight="1">
+      <c r="A16" s="18" t="s">
         <v>51</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1472,8 +1481,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
+    <row r="17" spans="1:8" ht="30">
+      <c r="A17" s="19"/>
       <c r="B17" s="4" t="s">
         <v>53</v>
       </c>
@@ -1496,8 +1505,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+    <row r="18" spans="1:8" ht="15">
+      <c r="A18" s="19"/>
       <c r="B18" s="4" t="s">
         <v>54</v>
       </c>
@@ -1520,8 +1529,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
+    <row r="19" spans="1:8" ht="30">
+      <c r="A19" s="20"/>
       <c r="B19" s="4" t="s">
         <v>55</v>
       </c>
@@ -1544,11 +1553,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
+    <row r="20" spans="1:8" ht="15">
+      <c r="A20" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="21"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="6">
         <f>SUM(C4:C19)</f>
         <v>685000</v>
@@ -1559,84 +1568,84 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A22" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14"/>
-    </row>
-    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14"/>
-    </row>
-    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-    </row>
-    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="14"/>
-    </row>
-    <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="14"/>
-    </row>
-    <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="14"/>
-    </row>
-    <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="14"/>
-    </row>
-    <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="14"/>
-    </row>
-    <row r="32" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="17"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="13"/>
+    </row>
+    <row r="28" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A28" s="11"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
+    </row>
+    <row r="29" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A29" s="11"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="13"/>
+    </row>
+    <row r="30" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="13"/>
+    </row>
+    <row r="32" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A32" s="14"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1650,6 +1659,6 @@
     <mergeCell ref="A12:A15"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="87" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="64" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>